--- a/biology/Neurosciences/JacSue_Kehoe/JacSue_Kehoe.xlsx
+++ b/biology/Neurosciences/JacSue_Kehoe/JacSue_Kehoe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacsue Kehoe était une neurophysiologiste américaine ayant effectué la majeure partie de sa carrière en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacsue Kehoe était une neurophysiologiste américaine ayant effectué la majeure partie de sa carrière en France.
 </t>
         </is>
       </c>
@@ -513,12 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Jacsue Kehoe est née à Cleveland le 23 octobre 1935, d'une père employé de Chrysler et d'une mère professeure d'anglais.
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacsue Kehoe est née à Cleveland le 23 octobre 1935, d'une père employé de Chrysler et d'une mère professeure d'anglais.
 Jeune, elle commence à s'intéresser au théâtre, et poursuit des études de théâtre à l'université Northwestern.
 Elle décide cependant par la suite de bifurquer vers la psychologie expérimentale, et continue ses études à l'université Brown où elle obtient un doctorat en 1961.
-Carrière scientifique
-À l'issue de son doctorat, Kehoe poursuit son travail sur la mémoire chez les pigeons et les rongeurs, mais commence à s'intéresser à la physiologie des synapses, grâce à Félix Strumwasser qui étudie aplysia californica, un mollusque dont les neurones géants font un organisme modèle idéal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JacSue_Kehoe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/JacSue_Kehoe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière scientifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'issue de son doctorat, Kehoe poursuit son travail sur la mémoire chez les pigeons et les rongeurs, mais commence à s'intéresser à la physiologie des synapses, grâce à Félix Strumwasser qui étudie aplysia californica, un mollusque dont les neurones géants font un organisme modèle idéal.
 En 1964, Kehoe déménage à Paris pour continuer l'étude des aplysia à l'Institut Marey, où elle fait des découvertes sur la réponse post-synaptique des neurones.
 En 1968, elle intègre le CNRS et fonde peu après, avec son mari Philippe Ascher, un laboratoire à l'école normale supérieure.
 </t>
